--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1910.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1910.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.293759303635882</v>
+        <v>1.80449366569519</v>
       </c>
       <c r="B1">
-        <v>3.45570070698359</v>
+        <v>3.759647846221924</v>
       </c>
       <c r="C1">
-        <v>2.560903150291223</v>
+        <v>2.837035417556763</v>
       </c>
       <c r="D1">
-        <v>2.342836669631471</v>
+        <v>0.9159057140350342</v>
       </c>
       <c r="E1">
-        <v>1.979261027439364</v>
+        <v>0.5866419076919556</v>
       </c>
     </row>
   </sheetData>
